--- a/medicine/Pharmacie/Filgotinib/Filgotinib.xlsx
+++ b/medicine/Pharmacie/Filgotinib/Filgotinib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le filgotinib est une molécule inhibitrice spécifique de la janus kinase 1 et en cours de test comme médicament.
 </t>
@@ -511,9 +523,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a une affinité trente fois supérieure pour la janus kinase 1 par rapport à celle pour la janus kinase 2[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a une affinité trente fois supérieure pour la janus kinase 1 par rapport à celle pour la janus kinase 2
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après absorption orale, il se transforme en un métabolite actif dont la demi-vie est d'un peu moins de 24 h[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après absorption orale, il se transforme en un métabolite actif dont la demi-vie est d'un peu moins de 24 h.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la polyarthrite rhumatoïde et en association avec le méthotrexate, il permet une amélioration des symptômes de la maladie[3]. Dans les formes résistantes de la maladie, il conserve une activité[4].
-Il a des résultats prometteurs dans la maladie de Crohn[5] et dans la rectocolite hémorragique[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la polyarthrite rhumatoïde et en association avec le méthotrexate, il permet une amélioration des symptômes de la maladie. Dans les formes résistantes de la maladie, il conserve une activité.
+Il a des résultats prometteurs dans la maladie de Crohn et dans la rectocolite hémorragique.
 </t>
         </is>
       </c>
